--- a/src/test/resources/Documents/4186/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/4186/Actual/JobMaterial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>Materialtype</t>
   </si>
@@ -47,31 +47,67 @@
     <t>Film</t>
   </si>
   <si>
+    <t>Magnetic Receptive - 2 versions  2p</t>
+  </si>
+  <si>
+    <t>Lamination</t>
+  </si>
+  <si>
+    <t>Anti-Slip Backer - Cold - 40pt 48" 50 ppi</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DF790-FT - Finishing Materiall (Default) - Linear Feet</t>
+  </si>
+  <si>
+    <t>Matte Laminate - Cold - 3.2 mil 54" 620 ppi</t>
+  </si>
+  <si>
     <t>Magnetic Receptive - 6 versions  2p</t>
   </si>
   <si>
-    <t>Lamination</t>
-  </si>
-  <si>
-    <t>Matte Laminate - Cold - 3.2 mil 54" 620 ppi</t>
+    <t>9.00</t>
   </si>
   <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DF790-FT - Finishing Materiall (Default) - Linear Feet</t>
-  </si>
-  <si>
-    <t>Magnetic Receptive - 2 versions  2p</t>
-  </si>
-  <si>
-    <t>20.00</t>
+    <t>Ink / Varnish</t>
+  </si>
+  <si>
+    <t>WF Print F 4x0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magenta - Wide Format UV - </t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>DF394 - Digital Ink/AC (Default, Lbs)</t>
+  </si>
+  <si>
+    <t>ISM Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black - Wide Format UV - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow - Wide Format UV - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyan - Wide Format UV - </t>
   </si>
   <si>
     <t>Sheet</t>
@@ -92,7 +128,10 @@
     <t>JS30402010-M - Substrates - Sheet Synthetic - M</t>
   </si>
   <si>
-    <t>22.00</t>
+    <t>Mag Receptive - 13 pt 47 x 64" 150 ppi</t>
+  </si>
+  <si>
+    <t>4.00</t>
   </si>
 </sst>
 </file>
@@ -100,13 +139,313 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="42">
+  <fonts count="102">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -334,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -377,6 +716,66 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -458,16 +857,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="13">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D3" t="s" s="15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s" s="16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="17">
         <v>15</v>
@@ -487,28 +886,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="22">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="24">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="25">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="23">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="24">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="F4" t="s" s="27">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="28">
         <v>16</v>
       </c>
       <c r="H4" t="s" s="29">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="30">
         <v>16</v>
@@ -519,33 +918,225 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="32">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="34">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="34">
+      <c r="E5" t="s" s="36">
         <v>21</v>
       </c>
-      <c r="D5" t="s" s="35">
+      <c r="F5" t="s" s="37">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="38">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="39">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="40">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s" s="41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="42">
         <v>22</v>
       </c>
-      <c r="E5" t="s" s="36">
+      <c r="B6" t="s" s="43">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="44">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="45">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="46">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s" s="47">
         <v>26</v>
       </c>
-      <c r="F5" t="s" s="37">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s" s="38">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s" s="39">
+      <c r="G6" t="s" s="48">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="49">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s" s="50">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s" s="51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="52">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="53">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="54">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="55">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s" s="56">
         <v>25</v>
       </c>
-      <c r="I5" t="s" s="40">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s" s="41">
+      <c r="F7" t="s" s="57">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s" s="58">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="59">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s" s="60">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s" s="61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="62">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="63">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="64">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="65">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s" s="66">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="67">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s" s="68">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="69">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s" s="70">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s" s="71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="72">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="73">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="74">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s" s="75">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s" s="76">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s" s="77">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s" s="78">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s" s="80">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s" s="81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="82">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s" s="83">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="84">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s" s="85">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s" s="86">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s" s="87">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s" s="88">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="89">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s" s="90">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="92">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s" s="93">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s" s="94">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s" s="95">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s" s="96">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s" s="97">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s" s="98">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="99">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s" s="100">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s" s="101">
         <v>16</v>
       </c>
     </row>

--- a/src/test/resources/Documents/4186/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/4186/Actual/JobMaterial.xlsx
@@ -53,24 +53,24 @@
     <t>Lamination</t>
   </si>
   <si>
+    <t>Matte Laminate - Cold - 3.2 mil 54" 620 ppi</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DF790-FT - Finishing Materiall (Default) - Linear Feet</t>
+  </si>
+  <si>
     <t>Anti-Slip Backer - Cold - 40pt 48" 50 ppi</t>
   </si>
   <si>
-    <t>7.95</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DF790-FT - Finishing Materiall (Default) - Linear Feet</t>
-  </si>
-  <si>
-    <t>Matte Laminate - Cold - 3.2 mil 54" 620 ppi</t>
-  </si>
-  <si>
     <t>Magnetic Receptive - 6 versions  2p</t>
   </si>
   <si>
@@ -86,52 +86,52 @@
     <t>WF Print F 4x0</t>
   </si>
   <si>
+    <t xml:space="preserve">Cyan - Wide Format UV - </t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>DF394 - Digital Ink/AC (Default, Lbs)</t>
+  </si>
+  <si>
+    <t>ISM Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black - Wide Format UV - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow - Wide Format UV - </t>
+  </si>
+  <si>
     <t xml:space="preserve">Magenta - Wide Format UV - </t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t>DF394 - Digital Ink/AC (Default, Lbs)</t>
-  </si>
-  <si>
-    <t>ISM Chicago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black - Wide Format UV - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow - Wide Format UV - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyan - Wide Format UV - </t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
     <t>OKTP</t>
   </si>
   <si>
+    <t>Mag Receptive - 13 pt 47 x 64" 150 ppi</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>Per M (prod)</t>
+  </si>
+  <si>
+    <t>JS30402010-M - Substrates - Sheet Synthetic - M</t>
+  </si>
+  <si>
     <t>Mag Receptive - 13 pt 12 x 18" 150 ppi</t>
   </si>
   <si>
     <t>12.00</t>
-  </si>
-  <si>
-    <t>Per M (prod)</t>
-  </si>
-  <si>
-    <t>JS30402010-M - Substrates - Sheet Synthetic - M</t>
-  </si>
-  <si>
-    <t>Mag Receptive - 13 pt 47 x 64" 150 ppi</t>
-  </si>
-  <si>
-    <t>4.00</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s" s="25">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="26">
         <v>20</v>
@@ -927,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s" s="35">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s" s="36">
         <v>21</v>
@@ -1081,7 +1081,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s" s="83">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s" s="84">
         <v>33</v>
@@ -1113,7 +1113,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s" s="93">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="94">
         <v>33</v>
